--- a/1лаба/p_value.xlsx
+++ b/1лаба/p_value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150AB2A-3D11-45DC-A5F8-A4BA016662D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750FA642-3355-4659-BC2F-B3965DE21B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:L25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +489,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2">
         <v>3.2473677193109072E-9</v>
       </c>
@@ -528,7 +528,7 @@
       <c r="B3" s="2">
         <v>3.2473677193109072E-9</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2">
         <v>0.122816806868754</v>
       </c>
@@ -567,7 +567,7 @@
       <c r="C4" s="2">
         <v>0.12281680686875381</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2">
         <v>3.5694127797773689E-215</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="D5" s="2">
         <v>3.5694127797773689E-215</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2">
         <v>3.0163393228088729E-2</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="E6" s="2">
         <v>3.0163393228088819E-2</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>3.2255416988696398E-3</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="F7" s="2">
         <v>3.225541698869652E-3</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2">
         <v>0.27052907849450908</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="G8" s="2">
         <v>0.27052907849450908</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>0.57668165553175887</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="H9" s="2">
         <v>0.5766816555317591</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2">
         <v>0.34597863552036601</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="I10" s="2">
         <v>0.34597863552036601</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2">
         <v>0.24276420607417359</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="J11" s="2">
         <v>0.24276420607417359</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2">
         <v>5.4942871232499341E-18</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="K12" s="2">
         <v>5.4942871232499341E-18</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
